--- a/content/post/2022-12-06-modeling-secular-trend-in-a-stepped-wedge-design/images/step_diagram.xlsx
+++ b/content/post/2022-12-06-modeling-secular-trend-in-a-stepped-wedge-design/images/step_diagram.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keith/git R projects/rdatagen/content/post/2022-12-06-modeling-secular-trend-in-a-stepped-wedge-design/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6161527F-B340-7A45-9115-5F351B03675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1283AB3-198B-E545-8083-B4E4303D968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17040" xr2:uid="{C6312506-2EDE-2B4E-A816-18F64E353610}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{C6312506-2EDE-2B4E-A816-18F64E353610}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="6 waves" sheetId="1" r:id="rId1"/>
+    <sheet name="24 waves" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>Wave</t>
   </si>
@@ -37,6 +38,9 @@
   </si>
   <si>
     <t>Period (k)</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -107,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,19 +135,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -158,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,13 +161,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -187,6 +175,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,17 +502,269 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254B8D82-5AD7-604D-9D08-8766F9BB1A80}">
   <dimension ref="B3:V13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="22" width="3.83203125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="8.5" style="1" customWidth="1"/>
+    <col min="10" max="22" width="3.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:22" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C12" s="7"/>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C13" s="8"/>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50295984-B925-2145-8E4E-AD488EC94C82}">
+  <dimension ref="B3:X20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="17" width="4.33203125" style="1" customWidth="1"/>
+    <col min="18" max="24" width="3.83203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:24" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
@@ -536,13 +782,15 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -567,47 +815,39 @@
       <c r="I4" s="1">
         <v>7</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="9">
         <v>8</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="9">
         <v>9</v>
       </c>
-      <c r="L4" s="1">
-        <v>10</v>
-      </c>
-      <c r="M4" s="1">
-        <v>11</v>
-      </c>
-      <c r="N4" s="1">
-        <v>12</v>
-      </c>
-      <c r="O4" s="1">
-        <v>13</v>
-      </c>
-      <c r="P4" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>15</v>
-      </c>
-      <c r="R4" s="1">
-        <v>16</v>
-      </c>
-      <c r="S4" s="1">
-        <v>17</v>
-      </c>
-      <c r="T4" s="1">
-        <v>18</v>
-      </c>
-      <c r="U4" s="1">
-        <v>19</v>
-      </c>
-      <c r="V4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>25</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -615,166 +855,272 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="8"/>
-      <c r="D12" s="2" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="7"/>
+      <c r="D19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="9"/>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C20" s="8"/>
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:V3"/>
+    <mergeCell ref="C3:Q3"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
